--- a/Robot Cuentas por Cobrar/Config - Copy/Archivos/LISTADO DE PROVEDORES TRANSPORTE.xlsx
+++ b/Robot Cuentas por Cobrar/Config - Copy/Archivos/LISTADO DE PROVEDORES TRANSPORTE.xlsx
@@ -5,14 +5,15 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Tercer proceso UNACEM\Config\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Cuentas por Cobrar\Config\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$217</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="506">
   <si>
     <t>Proveedor</t>
   </si>
@@ -1512,6 +1513,39 @@
   </si>
   <si>
     <t>NOMBRE PRINCIPAL COMPANIA DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>Materiales</t>
+  </si>
+  <si>
+    <t>YESO</t>
+  </si>
+  <si>
+    <t>YESO SINTETICO</t>
+  </si>
+  <si>
+    <t>ACEITE USADO - PROVIDA</t>
+  </si>
+  <si>
+    <t>CALIZA DE TERCEROS</t>
+  </si>
+  <si>
+    <t>CLINKER COMPRADO</t>
+  </si>
+  <si>
+    <t>ESCORIA DE ACERO DE TERCEROS</t>
+  </si>
+  <si>
+    <t>SILICES DE TERCEROS</t>
+  </si>
+  <si>
+    <t>PETCOKE ALTO AZUFRE A</t>
+  </si>
+  <si>
+    <t>RESIDUO INDUSTRIAL HORNO</t>
+  </si>
+  <si>
+    <t>RESIDUO INDUSTRIAL P.ELECTRICA</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1616,6 +1650,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1899,7 +1936,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6490,4 +6527,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>